--- a/Scripts/parameters_output_27451.xlsx
+++ b/Scripts/parameters_output_27451.xlsx
@@ -812,16 +812,16 @@
         <v>18</v>
       </c>
       <c r="G12">
-        <v>2260924.485732208</v>
+        <v>1835738.213155818</v>
       </c>
       <c r="H12">
-        <v>29841.93338329289</v>
+        <v>35769.12314823319</v>
       </c>
       <c r="I12">
-        <v>1.49</v>
+        <v>6.23</v>
       </c>
       <c r="J12">
-        <v>33750.48711078</v>
+        <v>114353.4584121229</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -844,16 +844,16 @@
         <v>18</v>
       </c>
       <c r="G13">
-        <v>1735187.796984802</v>
+        <v>1835738.213155818</v>
       </c>
       <c r="H13">
-        <v>33271.92821378859</v>
+        <v>35769.12314823319</v>
       </c>
       <c r="I13">
-        <v>6.63</v>
+        <v>6.23</v>
       </c>
       <c r="J13">
-        <v>115025.6034457942</v>
+        <v>114353.4584121229</v>
       </c>
     </row>
     <row r="14" spans="1:10">
